--- a/Data/Transitions/19591967Translation.xlsx
+++ b/Data/Transitions/19591967Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="645">
   <si>
     <t>id</t>
   </si>
@@ -463,7 +463,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -664,7 +664,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1730,9 +1730,6 @@
   </si>
   <si>
     <t>{237.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3940,7 +3937,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>572</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3951,7 +3948,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3962,7 +3959,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4149,7 +4146,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4204,7 +4201,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4215,7 +4212,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4259,7 +4256,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4358,7 +4355,7 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4369,7 +4366,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4512,7 +4509,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4534,7 +4531,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4556,7 +4553,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4677,7 +4674,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>572</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4732,7 +4729,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4754,7 +4751,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4809,7 +4806,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4875,7 +4872,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4930,7 +4927,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5029,7 +5026,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5095,7 +5092,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5161,7 +5158,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5172,7 +5169,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5326,7 +5323,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5370,7 +5367,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5381,7 +5378,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5469,7 +5466,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5480,7 +5477,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5557,7 +5554,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5645,7 +5642,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5678,7 +5675,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5700,7 +5697,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5733,7 +5730,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5755,7 +5752,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5777,7 +5774,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5799,7 +5796,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5854,7 +5851,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6008,7 +6005,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6019,7 +6016,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6063,7 +6060,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6085,7 +6082,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6184,7 +6181,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6294,7 +6291,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6393,7 +6390,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6404,7 +6401,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6415,7 +6412,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6426,7 +6423,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6514,7 +6511,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6580,7 +6577,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6591,7 +6588,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6635,7 +6632,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6712,7 +6709,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6811,7 +6808,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7119,7 +7116,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7174,7 +7171,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7196,7 +7193,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7218,7 +7215,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7251,7 +7248,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7273,7 +7270,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7284,7 +7281,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7295,7 +7292,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7328,7 +7325,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7460,7 +7457,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7548,7 +7545,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7592,7 +7589,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7614,7 +7611,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7713,7 +7710,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7735,7 +7732,7 @@
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7856,7 +7853,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7922,7 +7919,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8010,7 +8007,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8032,7 +8029,7 @@
         <v>521</v>
       </c>
       <c r="C520" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8054,7 +8051,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8065,7 +8062,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8087,7 +8084,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8109,7 +8106,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="528" spans="1:3">
